--- a/VersionRecords/Version 5.1.1/定时器/定时器任务提交模板V1.1.xlsx
+++ b/VersionRecords/Version 5.1.1/定时器/定时器任务提交模板V1.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1\定时器\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5460" yWindow="60" windowWidth="29040" windowHeight="11580"/>
   </bookViews>
@@ -14,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>项目组</t>
   </si>
   <si>
-    <t>定时任务</t>
-  </si>
-  <si>
     <t>用途</t>
   </si>
   <si>
@@ -40,57 +42,6 @@
     <t>周期</t>
   </si>
   <si>
-    <t>极光组</t>
-  </si>
-  <si>
-    <t>黄展明</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>捷豹组</t>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>袁冰秋</t>
-  </si>
-  <si>
-    <t>账单提醒</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgBillHintByOrderTask"}</t>
-  </si>
-  <si>
-    <t>每日09:00:00执行</t>
-  </si>
-  <si>
-    <t>提交贷款申请到拉卡拉</t>
-  </si>
-  <si>
-    <t>com.mogoroom.bs.job.CronExecutor</t>
-  </si>
-  <si>
-    <t>（新增）账单提醒，推送消息 租客&amp;房东&amp;房东子账号</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.MsgBillHintByOrderTask</t>
-  </si>
-  <si>
-    <t>LTS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>crontab</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -99,33 +50,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3.0.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.0.0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨斌</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>执行节点</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>mogo_trade_TaskTracker</t>
-  </si>
-  <si>
-    <t>MsgBillHintByOrderTask</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>定时器类名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -146,38 +74,18 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>loan_submitinfo.sh</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>技术经理</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>开发人</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不用填</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每10分钟跑一次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>王辉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,13 +344,16 @@
     <cellStyle name="常规 4" xfId="4"/>
     <cellStyle name="常规 4 2" xfId="9"/>
     <cellStyle name="常规 5" xfId="5"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="3" builtinId="41"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -738,7 +649,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,163 +675,99 @@
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
